--- a/docs/Document/Deskripsi_Usecase.xlsx
+++ b/docs/Document/Deskripsi_Usecase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anlah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL\AgileD3_2025\docs\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F7534F-98D0-41CD-8CA0-EEC8B4BDA25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4662DA40-334F-4235-9CC5-94538E4A62B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="368">
   <si>
     <t>CRUD</t>
   </si>
@@ -1087,13 +1087,61 @@
   </si>
   <si>
     <t>melihat nilai pretest dan postest</t>
+  </si>
+  <si>
+    <t>UC11A</t>
+  </si>
+  <si>
+    <t>UC11B</t>
+  </si>
+  <si>
+    <t>UC11C</t>
+  </si>
+  <si>
+    <t>UC11D</t>
+  </si>
+  <si>
+    <t>UC11E</t>
+  </si>
+  <si>
+    <t>UC11F</t>
+  </si>
+  <si>
+    <t>UC11G</t>
+  </si>
+  <si>
+    <t>UC11H</t>
+  </si>
+  <si>
+    <t>UC11I</t>
+  </si>
+  <si>
+    <t>UC11J</t>
+  </si>
+  <si>
+    <t>UC11K</t>
+  </si>
+  <si>
+    <t>UC11L</t>
+  </si>
+  <si>
+    <t>UC11M</t>
+  </si>
+  <si>
+    <t>UC11N</t>
+  </si>
+  <si>
+    <t>UC11O</t>
+  </si>
+  <si>
+    <t>UC11P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1152,6 +1200,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1167,7 +1221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1205,11 +1259,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1254,6 +1345,32 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1470,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R1000"/>
+  <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1489,12 +1606,15 @@
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="5.6328125" customWidth="1"/>
     <col min="12" max="12" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.08984375" customWidth="1"/>
     <col min="14" max="14" width="23.08984375" customWidth="1"/>
-    <col min="15" max="26" width="9" customWidth="1"/>
+    <col min="15" max="19" width="9" customWidth="1"/>
+    <col min="20" max="20" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>345</v>
       </c>
@@ -1529,8 +1649,19 @@
         <v>0</v>
       </c>
       <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N1" s="19"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="T1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1565,8 +1696,14 @@
         <v>3</v>
       </c>
       <c r="M2" s="16"/>
-    </row>
-    <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1597,8 +1734,14 @@
         <v>350</v>
       </c>
       <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1629,8 +1772,14 @@
         <v>169</v>
       </c>
       <c r="M4" s="16"/>
-    </row>
-    <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1661,8 +1810,14 @@
         <v>8</v>
       </c>
       <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1693,8 +1848,14 @@
         <v>9</v>
       </c>
       <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1725,8 +1886,29 @@
         <v>10</v>
       </c>
       <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1758,12 +1940,29 @@
         <v>11</v>
       </c>
       <c r="M8" s="16"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1794,9 +1993,29 @@
         <v>12</v>
       </c>
       <c r="M9" s="16"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1827,9 +2046,29 @@
         <v>351</v>
       </c>
       <c r="M10" s="16"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1860,9 +2099,29 @@
         <v>90</v>
       </c>
       <c r="M11" s="16"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1897,9 +2156,29 @@
         <v>13</v>
       </c>
       <c r="M12" s="16"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1923,9 +2202,29 @@
       <c r="I13" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1949,9 +2248,29 @@
       <c r="I14" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1975,9 +2294,29 @@
       <c r="I15" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -2001,9 +2340,29 @@
       <c r="I16" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -2033,9 +2392,29 @@
       <c r="L17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -2065,9 +2444,29 @@
       <c r="L18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -2097,9 +2496,29 @@
       <c r="L19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -2129,9 +2548,29 @@
       <c r="L20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="R20" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -2155,9 +2594,29 @@
       <c r="I21" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="R21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -2181,9 +2640,29 @@
       <c r="I22" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="R22" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -2207,9 +2686,29 @@
       <c r="I23" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N23" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -2233,9 +2732,29 @@
       <c r="I24" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="P24" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="R24" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -2259,9 +2778,29 @@
       <c r="I25" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q25" s="4"/>
-    </row>
-    <row r="26" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="R25" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="T25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -2289,9 +2828,29 @@
       <c r="I26" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q26" s="5"/>
-    </row>
-    <row r="27" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="P26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="R26" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -2315,9 +2874,29 @@
       <c r="I27" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q27" s="5"/>
-    </row>
-    <row r="28" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N27" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="R27" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -2341,9 +2920,29 @@
       <c r="I28" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q28" s="5"/>
-    </row>
-    <row r="29" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N28" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="P28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="R28" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="U28" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -2367,9 +2966,29 @@
       <c r="I29" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q29" s="5"/>
-    </row>
-    <row r="30" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N29" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="P29" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="R29" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="U29" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -2393,9 +3012,29 @@
       <c r="I30" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q30" s="5"/>
-    </row>
-    <row r="31" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N30" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="P30" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="R30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -2419,9 +3058,29 @@
       <c r="I31" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q31" s="5"/>
-    </row>
-    <row r="32" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N31" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="P31" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="R31" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -2445,9 +3104,29 @@
       <c r="I32" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q32" s="5"/>
-    </row>
-    <row r="33" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N32" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="P32" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="R32" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -2471,9 +3150,29 @@
       <c r="I33" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q33" s="5"/>
-    </row>
-    <row r="34" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N33" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="P33" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="R33" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -2497,9 +3196,29 @@
       <c r="I34" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q34" s="5"/>
-    </row>
-    <row r="35" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N34" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="P34" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="R34" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="U34" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -2523,9 +3242,29 @@
       <c r="I35" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q35" s="5"/>
-    </row>
-    <row r="36" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N35" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O35" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="P35" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="R35" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="T35" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="U35" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -2549,9 +3288,29 @@
       <c r="I36" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q36" s="5"/>
-    </row>
-    <row r="37" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N36" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="P36" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="R36" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="U36" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -2575,9 +3334,29 @@
       <c r="I37" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q37" s="5"/>
-    </row>
-    <row r="38" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N37" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="P37" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="R37" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T37" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="U37" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -2601,9 +3380,29 @@
       <c r="I38" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q38" s="5"/>
-    </row>
-    <row r="39" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N38" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="P38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="R38" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T38" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="U38" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -2627,9 +3426,29 @@
       <c r="I39" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q39" s="5"/>
-    </row>
-    <row r="40" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N39" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="P39" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="R39" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T39" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -2653,9 +3472,29 @@
       <c r="I40" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q40" s="5"/>
-    </row>
-    <row r="41" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N40" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="P40" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="R40" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T40" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="U40" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -2679,9 +3518,29 @@
       <c r="I41" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q41" s="5"/>
-    </row>
-    <row r="42" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N41" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="P41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="R41" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T41" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="U41" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -2709,9 +3568,29 @@
       <c r="I42" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="R42" s="4"/>
-    </row>
-    <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N42" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="P42" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="R42" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="T42" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="U42" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -2735,9 +3614,29 @@
       <c r="I43" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N43" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="P43" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="R43" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="T43" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U43" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -2761,9 +3660,29 @@
       <c r="I44" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="R44" s="5"/>
-    </row>
-    <row r="45" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N44" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="P44" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="R44" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="T44" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="U44" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -2787,9 +3706,29 @@
       <c r="I45" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="R45" s="5"/>
-    </row>
-    <row r="46" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N45" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="P45" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="R45" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="T45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -2813,9 +3752,29 @@
       <c r="I46" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="R46" s="5"/>
-    </row>
-    <row r="47" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N46" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="P46" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="R46" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T46" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="U46" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -2839,9 +3798,29 @@
       <c r="I47" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="R47" s="5"/>
-    </row>
-    <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N47" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="P47" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="R47" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T47" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="U47" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -2865,9 +3844,29 @@
       <c r="I48" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="R48" s="5"/>
-    </row>
-    <row r="49" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N48" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="P48" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="R48" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T48" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="U48" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -2891,9 +3890,29 @@
       <c r="I49" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N49" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="P49" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="R49" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T49" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="U49" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -2917,9 +3936,29 @@
       <c r="I50" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="R50" s="5"/>
-    </row>
-    <row r="51" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N50" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O50" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="P50" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="R50" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T50" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="U50" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -2943,9 +3982,29 @@
       <c r="I51" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="R51" s="5"/>
-    </row>
-    <row r="52" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N51" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O51" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="P51" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q51" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="R51" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T51" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="U51" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -2969,9 +4028,29 @@
       <c r="I52" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="R52" s="5"/>
-    </row>
-    <row r="53" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N52" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O52" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="P52" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="R52" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -2995,9 +4074,29 @@
       <c r="I53" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N53" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O53" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="P53" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q53" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="R53" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T53" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="U53" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -3025,9 +4124,29 @@
       <c r="I54" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="R54" s="5"/>
-    </row>
-    <row r="55" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N54" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O54" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="P54" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="R54" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U54" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -3051,9 +4170,29 @@
       <c r="I55" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N55" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O55" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="P55" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q55" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="R55" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T55" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U55" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -3077,9 +4216,29 @@
       <c r="I56" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="R56" s="5"/>
-    </row>
-    <row r="57" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N56" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="P56" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q56" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="R56" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T56" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="U56" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -3103,9 +4262,29 @@
       <c r="I57" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="R57" s="5"/>
-    </row>
-    <row r="58" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N57" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O57" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="P57" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="R57" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T57" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="U57" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -3129,10 +4308,29 @@
       <c r="I58" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="5"/>
-    </row>
-    <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N58" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O58" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P58" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="R58" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="T58" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="U58" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -3156,9 +4354,29 @@
       <c r="I59" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q59" s="5"/>
-    </row>
-    <row r="60" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N59" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O59" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="P59" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="R59" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T59" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="U59" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -3182,9 +4400,29 @@
       <c r="I60" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q60" s="5"/>
-    </row>
-    <row r="61" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N60" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O60" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="P60" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="R60" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T60" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="U60" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
         <v>60</v>
       </c>
@@ -3208,9 +4446,29 @@
       <c r="I61" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q61" s="5"/>
-    </row>
-    <row r="62" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N61" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O61" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="P61" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q61" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="R61" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T61" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="U61" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
         <v>61</v>
       </c>
@@ -3234,9 +4492,29 @@
       <c r="I62" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q62" s="5"/>
-    </row>
-    <row r="63" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N62" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O62" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="P62" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="R62" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T62" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="U62" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -3260,9 +4538,29 @@
       <c r="I63" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q63" s="5"/>
-    </row>
-    <row r="64" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N63" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O63" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="P63" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q63" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="R63" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="T63" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U63" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="10">
         <v>63</v>
       </c>
@@ -3286,9 +4584,29 @@
       <c r="I64" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q64" s="5"/>
-    </row>
-    <row r="65" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N64" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O64" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="P64" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q64" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="R64" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="T64" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="U64" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -3312,9 +4630,29 @@
       <c r="I65" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q65" s="5"/>
-    </row>
-    <row r="66" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N65" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O65" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="P65" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q65" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="R65" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="T65" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="U65" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10">
         <v>65</v>
       </c>
@@ -3338,9 +4676,29 @@
       <c r="I66" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q66" s="5"/>
-    </row>
-    <row r="67" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N66" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O66" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="P66" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="R66" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T66" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="U66" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -3364,9 +4722,29 @@
       <c r="I67" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q67" s="5"/>
-    </row>
-    <row r="68" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N67" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O67" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="P67" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q67" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="R67" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T67" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="U67" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="10">
         <v>67</v>
       </c>
@@ -3390,9 +4768,29 @@
       <c r="I68" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q68" s="5"/>
-    </row>
-    <row r="69" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N68" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O68" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="P68" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q68" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="R68" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="T68" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="U68" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -3416,9 +4814,29 @@
       <c r="I69" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q69" s="5"/>
-    </row>
-    <row r="70" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N69" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O69" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="P69" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q69" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="R69" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T69" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="U69" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -3446,9 +4864,29 @@
       <c r="I70" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q70" s="5"/>
-    </row>
-    <row r="71" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N70" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O70" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="P70" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q70" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="R70" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T70" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="U70" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -3472,9 +4910,29 @@
       <c r="I71" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q71" s="5"/>
-    </row>
-    <row r="72" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N71" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O71" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="P71" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q71" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="R71" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="T71" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U71" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10">
         <v>71</v>
       </c>
@@ -3498,9 +4956,29 @@
       <c r="I72" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q72" s="5"/>
-    </row>
-    <row r="73" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N72" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O72" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="P72" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q72" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="R72" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T72" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U72" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -3524,9 +5002,29 @@
       <c r="I73" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q73" s="4"/>
-    </row>
-    <row r="74" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N73" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O73" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="P73" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q73" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="R73" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T73" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="U73" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="10">
         <v>73</v>
       </c>
@@ -3550,9 +5048,29 @@
       <c r="I74" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q74" s="5"/>
-    </row>
-    <row r="75" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N74" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O74" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="P74" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q74" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="R74" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T74" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="U74" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -3576,9 +5094,29 @@
       <c r="I75" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q75" s="5"/>
-    </row>
-    <row r="76" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N75" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O75" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="P75" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q75" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="R75" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="T75" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="U75" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="10">
         <v>75</v>
       </c>
@@ -3602,9 +5140,29 @@
       <c r="I76" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q76" s="5"/>
-    </row>
-    <row r="77" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N76" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O76" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="P76" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q76" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="R76" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="T76" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="U76" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="10">
         <v>76</v>
       </c>
@@ -3628,9 +5186,29 @@
       <c r="I77" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q77" s="5"/>
-    </row>
-    <row r="78" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N77" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O77" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="P77" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q77" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="R77" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T77" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="U77" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="10">
         <v>77</v>
       </c>
@@ -3658,9 +5236,29 @@
       <c r="I78" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q78" s="5"/>
-    </row>
-    <row r="79" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N78" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O78" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="P78" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q78" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="R78" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T78" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="U78" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -3684,9 +5282,29 @@
       <c r="I79" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q79" s="4"/>
-    </row>
-    <row r="80" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N79" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O79" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="P79" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q79" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="R79" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T79" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="U79" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="10">
         <v>79</v>
       </c>
@@ -3710,9 +5328,29 @@
       <c r="I80" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q80" s="5"/>
-    </row>
-    <row r="81" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N80" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O80" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="P80" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q80" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="R80" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T80" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="U80" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="10">
         <v>80</v>
       </c>
@@ -3736,9 +5374,29 @@
       <c r="I81" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q81" s="5"/>
-    </row>
-    <row r="82" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N81" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O81" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="P81" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="R81" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="T81" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U81" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="10">
         <v>81</v>
       </c>
@@ -3762,9 +5420,29 @@
       <c r="I82" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q82" s="5"/>
-    </row>
-    <row r="83" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N82" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O82" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="P82" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q82" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="R82" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="T82" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="U82" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="10">
         <v>82</v>
       </c>
@@ -3788,9 +5466,29 @@
       <c r="I83" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q83" s="5"/>
-    </row>
-    <row r="84" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N83" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O83" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="P83" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="R83" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="T83" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="U83" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="10">
         <v>83</v>
       </c>
@@ -3814,9 +5512,29 @@
       <c r="I84" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q84" s="5"/>
-    </row>
-    <row r="85" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N84" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O84" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="P84" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q84" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="R84" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T84" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="U84" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10">
         <v>84</v>
       </c>
@@ -3840,9 +5558,29 @@
       <c r="I85" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q85" s="5"/>
-    </row>
-    <row r="86" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N85" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O85" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="P85" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q85" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="R85" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T85" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="U85" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="10">
         <v>85</v>
       </c>
@@ -3866,9 +5604,29 @@
       <c r="I86" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q86" s="5"/>
-    </row>
-    <row r="87" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N86" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="O86" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P86" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q86" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="R86" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="T86" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="U86" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="10">
         <v>86</v>
       </c>
@@ -3892,9 +5650,29 @@
       <c r="I87" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q87" s="5"/>
-    </row>
-    <row r="88" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N87" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O87" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="P87" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q87" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="R87" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="T87" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="U87" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="10">
         <v>87</v>
       </c>
@@ -3918,9 +5696,29 @@
       <c r="I88" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q88" s="5"/>
-    </row>
-    <row r="89" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N88" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O88" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="P88" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q88" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="R88" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="T88" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="U88" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="10">
         <v>88</v>
       </c>
@@ -3944,9 +5742,29 @@
       <c r="I89" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q89" s="5"/>
-    </row>
-    <row r="90" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N89" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="O89" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="P89" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q89" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="R89" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="T89" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="U89" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="10">
         <v>89</v>
       </c>
@@ -3970,9 +5788,29 @@
       <c r="I90" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q90" s="5"/>
-    </row>
-    <row r="91" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N90" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="O90" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="P90" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q90" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="R90" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T90" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="U90" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="10">
         <v>90</v>
       </c>
@@ -3996,9 +5834,29 @@
       <c r="I91" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="Q91" s="5"/>
-    </row>
-    <row r="92" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N91" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="O91" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="P91" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="R91" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="T91" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="U91" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="10">
         <v>91</v>
       </c>
@@ -4023,8 +5881,14 @@
         <v>348</v>
       </c>
       <c r="Q92" s="5"/>
-    </row>
-    <row r="93" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T92" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="U92" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="10">
         <v>92</v>
       </c>
@@ -4049,8 +5913,14 @@
         <v>348</v>
       </c>
       <c r="Q93" s="5"/>
-    </row>
-    <row r="94" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T93" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="U93" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="10">
         <v>93</v>
       </c>
@@ -4079,8 +5949,14 @@
         <v>348</v>
       </c>
       <c r="Q94" s="4"/>
-    </row>
-    <row r="95" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T94" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="U94" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="10">
         <v>94</v>
       </c>
@@ -4105,8 +5981,14 @@
         <v>348</v>
       </c>
       <c r="Q95" s="5"/>
-    </row>
-    <row r="96" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T95" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U95" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="10">
         <v>95</v>
       </c>
@@ -4131,8 +6013,14 @@
         <v>348</v>
       </c>
       <c r="Q96" s="5"/>
-    </row>
-    <row r="97" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T96" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="U96" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="10">
         <v>96</v>
       </c>
@@ -4157,8 +6045,14 @@
         <v>348</v>
       </c>
       <c r="Q97" s="5"/>
-    </row>
-    <row r="98" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T97" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="U97" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="10">
         <v>97</v>
       </c>
@@ -4183,8 +6077,14 @@
         <v>348</v>
       </c>
       <c r="Q98" s="5"/>
-    </row>
-    <row r="99" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T98" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="U98" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="10">
         <v>98</v>
       </c>
@@ -4209,8 +6109,14 @@
         <v>348</v>
       </c>
       <c r="Q99" s="5"/>
-    </row>
-    <row r="100" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T99" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="U99" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="10">
         <v>99</v>
       </c>
@@ -4235,8 +6141,14 @@
         <v>348</v>
       </c>
       <c r="Q100" s="5"/>
-    </row>
-    <row r="101" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T100" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="U100" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="10">
         <v>100</v>
       </c>
@@ -4261,8 +6173,14 @@
         <v>348</v>
       </c>
       <c r="Q101" s="5"/>
-    </row>
-    <row r="102" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T101" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="U101" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="10">
         <v>101</v>
       </c>
@@ -4287,8 +6205,14 @@
         <v>348</v>
       </c>
       <c r="Q102" s="5"/>
-    </row>
-    <row r="103" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T102" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="U102" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="10">
         <v>102</v>
       </c>
@@ -4313,8 +6237,14 @@
         <v>348</v>
       </c>
       <c r="Q103" s="5"/>
-    </row>
-    <row r="104" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T103" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="U103" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="10">
         <v>103</v>
       </c>
@@ -4339,8 +6269,14 @@
         <v>348</v>
       </c>
       <c r="Q104" s="5"/>
-    </row>
-    <row r="105" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T104" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="U104" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="10">
         <v>104</v>
       </c>
@@ -4365,8 +6301,14 @@
         <v>348</v>
       </c>
       <c r="Q105" s="5"/>
-    </row>
-    <row r="106" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T105" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="U105" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -4391,8 +6333,14 @@
         <v>348</v>
       </c>
       <c r="Q106" s="5"/>
-    </row>
-    <row r="107" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T106" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="U106" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="10">
         <v>106</v>
       </c>
@@ -4417,8 +6365,14 @@
         <v>348</v>
       </c>
       <c r="Q107" s="5"/>
-    </row>
-    <row r="108" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T107" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="U107" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="10">
         <v>107</v>
       </c>
@@ -4443,8 +6397,14 @@
         <v>348</v>
       </c>
       <c r="Q108" s="5"/>
-    </row>
-    <row r="109" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T108" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="U108" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="10">
         <v>108</v>
       </c>
@@ -4469,8 +6429,14 @@
         <v>348</v>
       </c>
       <c r="Q109" s="4"/>
-    </row>
-    <row r="110" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T109" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="U109" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="10">
         <v>109</v>
       </c>
@@ -4499,8 +6465,14 @@
         <v>349</v>
       </c>
       <c r="Q110" s="5"/>
-    </row>
-    <row r="111" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T110" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="U110" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="10">
         <v>110</v>
       </c>
@@ -4525,8 +6497,14 @@
         <v>349</v>
       </c>
       <c r="Q111" s="5"/>
-    </row>
-    <row r="112" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T111" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="U111" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="10">
         <v>111</v>
       </c>
@@ -4551,8 +6529,14 @@
         <v>349</v>
       </c>
       <c r="Q112" s="5"/>
-    </row>
-    <row r="113" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T112" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="U112" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="10">
         <v>112</v>
       </c>
@@ -4577,8 +6561,14 @@
         <v>349</v>
       </c>
       <c r="Q113" s="5"/>
-    </row>
-    <row r="114" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T113" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="U113" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="10">
         <v>113</v>
       </c>
@@ -4603,8 +6593,14 @@
         <v>349</v>
       </c>
       <c r="Q114" s="4"/>
-    </row>
-    <row r="115" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T114" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="U114" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="10">
         <v>114</v>
       </c>
@@ -4633,8 +6629,14 @@
         <v>349</v>
       </c>
       <c r="Q115" s="5"/>
-    </row>
-    <row r="116" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T115" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="U115" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="10">
         <v>115</v>
       </c>
@@ -4659,8 +6661,14 @@
         <v>349</v>
       </c>
       <c r="Q116" s="5"/>
-    </row>
-    <row r="117" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T116" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="U116" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="10">
         <v>116</v>
       </c>
@@ -4685,8 +6693,14 @@
         <v>349</v>
       </c>
       <c r="Q117" s="5"/>
-    </row>
-    <row r="118" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T117" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="U117" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="10">
         <v>117</v>
       </c>
@@ -4711,8 +6725,14 @@
         <v>349</v>
       </c>
       <c r="Q118" s="5"/>
-    </row>
-    <row r="119" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T118" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="U118" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="10">
         <v>118</v>
       </c>
@@ -4737,8 +6757,14 @@
         <v>349</v>
       </c>
       <c r="Q119" s="5"/>
-    </row>
-    <row r="120" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T119" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="U119" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="10">
         <v>119</v>
       </c>
@@ -4763,8 +6789,14 @@
         <v>349</v>
       </c>
       <c r="Q120" s="5"/>
-    </row>
-    <row r="121" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T120" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="U120" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="10">
         <v>120</v>
       </c>
@@ -4784,7 +6816,7 @@
         <v>4</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>94</v>
+        <v>352</v>
       </c>
       <c r="H121" s="11" t="s">
         <v>157</v>
@@ -4793,8 +6825,14 @@
         <v>349</v>
       </c>
       <c r="Q121" s="5"/>
-    </row>
-    <row r="122" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T121" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="U121" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="10">
         <v>121</v>
       </c>
@@ -4810,7 +6848,7 @@
         <v>25</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>95</v>
+        <v>353</v>
       </c>
       <c r="H122" s="11" t="s">
         <v>157</v>
@@ -4818,8 +6856,14 @@
       <c r="I122" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T122" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="U122" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="10">
         <v>122</v>
       </c>
@@ -4835,7 +6879,7 @@
         <v>25</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>96</v>
+        <v>354</v>
       </c>
       <c r="H123" s="11" t="s">
         <v>157</v>
@@ -4843,8 +6887,14 @@
       <c r="I123" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T123" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="U123" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="10">
         <v>123</v>
       </c>
@@ -4860,7 +6910,7 @@
         <v>25</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>98</v>
+        <v>355</v>
       </c>
       <c r="H124" s="11" t="s">
         <v>157</v>
@@ -4868,8 +6918,14 @@
       <c r="I124" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T124" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="U124" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="10">
         <v>124</v>
       </c>
@@ -4885,7 +6941,7 @@
         <v>25</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>99</v>
+        <v>356</v>
       </c>
       <c r="H125" s="11" t="s">
         <v>157</v>
@@ -4893,8 +6949,14 @@
       <c r="I125" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T125" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="U125" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="10">
         <v>125</v>
       </c>
@@ -4910,7 +6972,7 @@
         <v>25</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="H126" s="11" t="s">
         <v>157</v>
@@ -4918,8 +6980,14 @@
       <c r="I126" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T126" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="U126" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="10">
         <v>126</v>
       </c>
@@ -4935,7 +7003,7 @@
         <v>4</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>158</v>
+        <v>358</v>
       </c>
       <c r="H127" s="11" t="s">
         <v>34</v>
@@ -4943,8 +7011,14 @@
       <c r="I127" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T127" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="U127" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="10">
         <v>127</v>
       </c>
@@ -4960,7 +7034,7 @@
         <v>4</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>159</v>
+        <v>359</v>
       </c>
       <c r="H128" s="11" t="s">
         <v>34</v>
@@ -4968,8 +7042,14 @@
       <c r="I128" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T128" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="U128" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="10">
         <v>128</v>
       </c>
@@ -4985,7 +7065,7 @@
         <v>4</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="H129" s="11" t="s">
         <v>34</v>
@@ -4993,8 +7073,14 @@
       <c r="I129" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T129" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="U129" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="10">
         <v>129</v>
       </c>
@@ -5010,7 +7096,7 @@
         <v>4</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>161</v>
+        <v>361</v>
       </c>
       <c r="H130" s="11" t="s">
         <v>34</v>
@@ -5018,8 +7104,14 @@
       <c r="I130" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T130" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="U130" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="10">
         <v>130</v>
       </c>
@@ -5035,7 +7127,7 @@
         <v>4</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>162</v>
+        <v>362</v>
       </c>
       <c r="H131" s="11" t="s">
         <v>163</v>
@@ -5043,8 +7135,14 @@
       <c r="I131" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T131" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="U131" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="10">
         <v>131</v>
       </c>
@@ -5060,7 +7158,7 @@
         <v>4</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>164</v>
+        <v>363</v>
       </c>
       <c r="H132" s="11" t="s">
         <v>163</v>
@@ -5068,8 +7166,14 @@
       <c r="I132" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T132" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U132" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="10">
         <v>132</v>
       </c>
@@ -5085,7 +7189,7 @@
         <v>4</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>165</v>
+        <v>364</v>
       </c>
       <c r="H133" s="11" t="s">
         <v>163</v>
@@ -5093,8 +7197,14 @@
       <c r="I133" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T133" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="U133" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="10">
         <v>133</v>
       </c>
@@ -5110,7 +7220,7 @@
         <v>4</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>166</v>
+        <v>365</v>
       </c>
       <c r="H134" s="11" t="s">
         <v>163</v>
@@ -5118,8 +7228,14 @@
       <c r="I134" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T134" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="U134" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="10">
         <v>134</v>
       </c>
@@ -5135,7 +7251,7 @@
         <v>25</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>167</v>
+        <v>366</v>
       </c>
       <c r="H135" s="11" t="s">
         <v>34</v>
@@ -5143,8 +7259,14 @@
       <c r="I135" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T135" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="U135" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="10">
         <v>135</v>
       </c>
@@ -5160,7 +7282,7 @@
         <v>4</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>168</v>
+        <v>367</v>
       </c>
       <c r="H136" s="11" t="s">
         <v>34</v>
@@ -5168,8 +7290,14 @@
       <c r="I136" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T136" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="U136" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="10">
         <v>136</v>
       </c>
@@ -5199,8 +7327,14 @@
         <v>349</v>
       </c>
       <c r="Q137" s="3"/>
-    </row>
-    <row r="138" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T137" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="U137" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="10">
         <v>137</v>
       </c>
@@ -5226,8 +7360,14 @@
         <v>349</v>
       </c>
       <c r="Q138" s="3"/>
-    </row>
-    <row r="139" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T138" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="U138" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="10">
         <v>138</v>
       </c>
@@ -5252,8 +7392,14 @@
       <c r="I139" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T139" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="U139" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="10">
         <v>139</v>
       </c>
@@ -5282,8 +7428,14 @@
         <v>349</v>
       </c>
       <c r="Q140" s="4"/>
-    </row>
-    <row r="141" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T140" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="U140" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="10">
         <v>140</v>
       </c>
@@ -5308,8 +7460,14 @@
         <v>349</v>
       </c>
       <c r="Q141" s="5"/>
-    </row>
-    <row r="142" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T141" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="U141" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="10">
         <v>141</v>
       </c>
@@ -5334,8 +7492,14 @@
         <v>349</v>
       </c>
       <c r="Q142" s="5"/>
-    </row>
-    <row r="143" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T142" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="U142" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="10">
         <v>142</v>
       </c>
@@ -5364,8 +7528,14 @@
         <v>349</v>
       </c>
       <c r="Q143" s="4"/>
-    </row>
-    <row r="144" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T143" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U143" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="10">
         <v>143</v>
       </c>
@@ -5390,8 +7560,14 @@
         <v>349</v>
       </c>
       <c r="Q144" s="5"/>
-    </row>
-    <row r="145" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T144" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="U144" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="10">
         <v>144</v>
       </c>
@@ -5420,8 +7596,14 @@
         <v>349</v>
       </c>
       <c r="Q145" s="5"/>
-    </row>
-    <row r="146" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T145" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="U145" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="10">
         <v>145</v>
       </c>
@@ -5446,8 +7628,14 @@
         <v>349</v>
       </c>
       <c r="Q146" s="5"/>
-    </row>
-    <row r="147" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T146" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="U146" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="10">
         <v>146</v>
       </c>
@@ -5476,8 +7664,14 @@
         <v>349</v>
       </c>
       <c r="Q147" s="5"/>
-    </row>
-    <row r="148" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T147" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="U147" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="10">
         <v>147</v>
       </c>
@@ -5502,8 +7696,14 @@
         <v>349</v>
       </c>
       <c r="Q148" s="5"/>
-    </row>
-    <row r="149" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T148" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="U148" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="10">
         <v>148</v>
       </c>
@@ -5532,8 +7732,14 @@
         <v>349</v>
       </c>
       <c r="Q149" s="5"/>
-    </row>
-    <row r="150" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T149" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="U149" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="10">
         <v>149</v>
       </c>
@@ -5558,8 +7764,14 @@
         <v>349</v>
       </c>
       <c r="Q150" s="5"/>
-    </row>
-    <row r="151" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T150" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="U150" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="10">
         <v>150</v>
       </c>
@@ -5588,8 +7800,14 @@
         <v>349</v>
       </c>
       <c r="Q151" s="5"/>
-    </row>
-    <row r="152" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T151" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="U151" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="10">
         <v>151</v>
       </c>
@@ -5618,8 +7836,14 @@
         <v>349</v>
       </c>
       <c r="Q152" s="5"/>
-    </row>
-    <row r="153" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T152" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="U152" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="10">
         <v>152</v>
       </c>
@@ -5644,8 +7868,14 @@
         <v>349</v>
       </c>
       <c r="Q153" s="5"/>
-    </row>
-    <row r="154" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T153" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="U153" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="10">
         <v>153</v>
       </c>
@@ -5671,20 +7901,20 @@
       </c>
       <c r="Q154" s="5"/>
     </row>
-    <row r="155" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q155" s="5"/>
     </row>
-    <row r="156" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q156" s="5"/>
     </row>
-    <row r="157" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q157" s="5"/>
     </row>
-    <row r="158" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q158" s="5"/>
     </row>
-    <row r="159" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/docs/Document/Deskripsi_Usecase.xlsx
+++ b/docs/Document/Deskripsi_Usecase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL\AgileD3_2025\docs\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4662DA40-334F-4235-9CC5-94538E4A62B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43922A8E-68EF-49A7-B87D-643C6A068039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="369">
   <si>
     <t>CRUD</t>
   </si>
@@ -1135,6 +1135,9 @@
   </si>
   <si>
     <t>UC11P</t>
+  </si>
+  <si>
+    <t>Anla</t>
   </si>
 </sst>
 </file>
@@ -1589,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H154"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1687,7 +1690,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="K2" s="18">
         <v>1</v>
@@ -1725,7 +1728,7 @@
         <v>157</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="K3" s="18">
         <v>2</v>
@@ -1763,7 +1766,7 @@
         <v>157</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="K4" s="18">
         <v>3</v>
@@ -1801,7 +1804,7 @@
         <v>157</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="K5" s="18">
         <v>4</v>
@@ -1839,7 +1842,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="K6" s="18">
         <v>5</v>
@@ -1877,7 +1880,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="K7" s="18">
         <v>6</v>
@@ -1930,7 +1933,7 @@
         <v>163</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="18">
@@ -1984,7 +1987,7 @@
         <v>163</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="K9" s="18">
         <v>8</v>
@@ -2037,7 +2040,7 @@
         <v>34</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="K10" s="18">
         <v>9</v>
@@ -2090,7 +2093,7 @@
         <v>34</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="K11" s="18">
         <v>10</v>
@@ -2147,7 +2150,7 @@
         <v>157</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="K12" s="18">
         <v>11</v>
@@ -2200,7 +2203,7 @@
         <v>157</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N13" s="21" t="s">
         <v>35</v>
@@ -2246,7 +2249,7 @@
         <v>157</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N14" s="21" t="s">
         <v>31</v>
@@ -2292,7 +2295,7 @@
         <v>157</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N15" s="19" t="s">
         <v>24</v>
@@ -2338,7 +2341,7 @@
         <v>157</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N16" s="21" t="s">
         <v>24</v>
@@ -2384,7 +2387,7 @@
         <v>157</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>1</v>
@@ -2436,7 +2439,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="K18" s="2">
         <v>2</v>
@@ -2488,7 +2491,7 @@
         <v>34</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="K19" s="2">
         <v>3</v>
@@ -2540,7 +2543,7 @@
         <v>34</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="K20" s="2">
         <v>4</v>
@@ -2592,7 +2595,7 @@
         <v>34</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N21" s="21" t="s">
         <v>27</v>
@@ -2638,7 +2641,7 @@
         <v>163</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N22" s="19" t="s">
         <v>29</v>
@@ -2684,7 +2687,7 @@
         <v>163</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N23" s="21" t="s">
         <v>29</v>
@@ -2730,7 +2733,7 @@
         <v>163</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N24" s="21" t="s">
         <v>29</v>
@@ -2776,7 +2779,7 @@
         <v>163</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N25" s="19" t="s">
         <v>24</v>
@@ -2826,7 +2829,7 @@
         <v>157</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N26" s="21" t="s">
         <v>24</v>
@@ -2872,7 +2875,7 @@
         <v>157</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N27" s="21" t="s">
         <v>24</v>
@@ -2918,7 +2921,7 @@
         <v>157</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N28" s="21" t="s">
         <v>24</v>
@@ -2964,7 +2967,7 @@
         <v>157</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N29" s="21" t="s">
         <v>24</v>
@@ -3010,7 +3013,7 @@
         <v>157</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N30" s="19" t="s">
         <v>27</v>
@@ -3056,7 +3059,7 @@
         <v>157</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N31" s="21" t="s">
         <v>27</v>
@@ -3102,7 +3105,7 @@
         <v>34</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N32" s="19" t="s">
         <v>29</v>
@@ -3148,7 +3151,7 @@
         <v>34</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N33" s="21" t="s">
         <v>29</v>
@@ -3194,7 +3197,7 @@
         <v>34</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N34" s="21" t="s">
         <v>29</v>
@@ -3240,7 +3243,7 @@
         <v>34</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N35" s="19" t="s">
         <v>24</v>
@@ -3286,7 +3289,7 @@
         <v>163</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N36" s="21" t="s">
         <v>24</v>
@@ -3332,7 +3335,7 @@
         <v>163</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N37" s="21" t="s">
         <v>24</v>
@@ -3378,7 +3381,7 @@
         <v>163</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N38" s="21" t="s">
         <v>24</v>
@@ -3424,7 +3427,7 @@
         <v>163</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N39" s="21" t="s">
         <v>24</v>
@@ -3470,7 +3473,7 @@
         <v>34</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N40" s="19" t="s">
         <v>35</v>
@@ -3516,7 +3519,7 @@
         <v>34</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="N41" s="21" t="s">
         <v>31</v>
@@ -4122,7 +4125,7 @@
         <v>157</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N54" s="19" t="s">
         <v>24</v>
@@ -4168,7 +4171,7 @@
         <v>157</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N55" s="21" t="s">
         <v>24</v>
@@ -4214,7 +4217,7 @@
         <v>157</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N56" s="21" t="s">
         <v>24</v>
@@ -4260,7 +4263,7 @@
         <v>157</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N57" s="21" t="s">
         <v>24</v>
@@ -4306,7 +4309,7 @@
         <v>157</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N58" s="19" t="s">
         <v>24</v>
@@ -4352,7 +4355,7 @@
         <v>157</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N59" s="21" t="s">
         <v>24</v>
@@ -4398,7 +4401,7 @@
         <v>34</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N60" s="21" t="s">
         <v>24</v>
@@ -4444,7 +4447,7 @@
         <v>34</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N61" s="21" t="s">
         <v>24</v>
@@ -4490,7 +4493,7 @@
         <v>34</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N62" s="21" t="s">
         <v>24</v>
@@ -4536,7 +4539,7 @@
         <v>34</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N63" s="19" t="s">
         <v>29</v>
@@ -4582,7 +4585,7 @@
         <v>163</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N64" s="21" t="s">
         <v>29</v>
@@ -4628,7 +4631,7 @@
         <v>163</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N65" s="21" t="s">
         <v>29</v>
@@ -4674,7 +4677,7 @@
         <v>163</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N66" s="21" t="s">
         <v>35</v>
@@ -4720,7 +4723,7 @@
         <v>163</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N67" s="21" t="s">
         <v>31</v>
@@ -4766,7 +4769,7 @@
         <v>34</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N68" s="19" t="s">
         <v>24</v>
@@ -4812,7 +4815,7 @@
         <v>34</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N69" s="21" t="s">
         <v>24</v>
@@ -4862,7 +4865,7 @@
         <v>157</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N70" s="21" t="s">
         <v>24</v>
@@ -4908,7 +4911,7 @@
         <v>157</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N71" s="19" t="s">
         <v>24</v>
@@ -4954,7 +4957,7 @@
         <v>157</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N72" s="21" t="s">
         <v>24</v>
@@ -5000,7 +5003,7 @@
         <v>157</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N73" s="21" t="s">
         <v>24</v>
@@ -5046,7 +5049,7 @@
         <v>157</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N74" s="21" t="s">
         <v>27</v>
@@ -5092,7 +5095,7 @@
         <v>157</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N75" s="21" t="s">
         <v>29</v>
@@ -5138,7 +5141,7 @@
         <v>34</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N76" s="19" t="s">
         <v>24</v>
@@ -5184,7 +5187,7 @@
         <v>163</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N77" s="21" t="s">
         <v>24</v>
@@ -6462,7 +6465,7 @@
         <v>157</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q110" s="5"/>
       <c r="T110" s="11" t="s">
@@ -6494,7 +6497,7 @@
         <v>157</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q111" s="5"/>
       <c r="T111" s="11" t="s">
@@ -6526,7 +6529,7 @@
         <v>157</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q112" s="5"/>
       <c r="T112" s="11" t="s">
@@ -6558,7 +6561,7 @@
         <v>157</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q113" s="5"/>
       <c r="T113" s="11" t="s">
@@ -6590,7 +6593,7 @@
         <v>157</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q114" s="4"/>
       <c r="T114" s="11" t="s">

--- a/docs/Document/Deskripsi_Usecase.xlsx
+++ b/docs/Document/Deskripsi_Usecase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL\AgileD3_2025\docs\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C13E017-3202-42EE-B3F5-246C4D40C698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E124D9-EF68-4600-8921-D1AFAC451D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="353">
   <si>
     <t>CRUD</t>
   </si>
@@ -1081,6 +1081,15 @@
   </si>
   <si>
     <t>UC11P</t>
+  </si>
+  <si>
+    <t>Nadya</t>
+  </si>
+  <si>
+    <t>Agel</t>
+  </si>
+  <si>
+    <t>vania</t>
   </si>
 </sst>
 </file>
@@ -1465,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L146" sqref="L146"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1476,7 +1485,8 @@
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.7265625" customWidth="1"/>
-    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="22.26953125" customWidth="1"/>
     <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
@@ -1549,7 +1559,9 @@
       <c r="H2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="K2" s="17">
         <v>1</v>
       </c>
@@ -1579,7 +1591,9 @@
       <c r="H3" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="K3" s="17">
         <v>2</v>
       </c>
@@ -1609,7 +1623,9 @@
       <c r="H4" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="K4" s="17">
         <v>3</v>
       </c>
@@ -1639,7 +1655,9 @@
       <c r="H5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="K5" s="17">
         <v>4</v>
       </c>
@@ -1669,7 +1687,9 @@
       <c r="H6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="K6" s="17">
         <v>5</v>
       </c>
@@ -1699,7 +1719,9 @@
       <c r="H7" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="K7" s="17">
         <v>6</v>
       </c>
@@ -1729,7 +1751,9 @@
       <c r="H8" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="17">
         <v>7</v>
@@ -1760,7 +1784,9 @@
       <c r="H9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="K9" s="17">
         <v>8</v>
       </c>
@@ -1794,7 +1820,9 @@
       <c r="H10" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="K10" s="17">
         <v>9</v>
       </c>
@@ -1824,7 +1852,9 @@
       <c r="H11" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="K11" s="17">
         <v>10</v>
       </c>
@@ -1854,7 +1884,9 @@
       <c r="H12" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="K12" s="17">
         <v>11</v>
       </c>
@@ -1884,7 +1916,9 @@
       <c r="H13" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
@@ -1907,7 +1941,9 @@
       <c r="H14" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
@@ -1930,7 +1966,9 @@
       <c r="H15" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
@@ -1953,7 +1991,9 @@
       <c r="H16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
@@ -1976,7 +2016,9 @@
       <c r="H17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="13"/>
+      <c r="I17" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="K17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2005,7 +2047,9 @@
       <c r="H18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="K18" s="2">
         <v>2</v>
       </c>
@@ -2034,7 +2078,9 @@
       <c r="H19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="K19" s="2">
         <v>3</v>
       </c>
@@ -2063,7 +2109,9 @@
       <c r="H20" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="K20" s="2">
         <v>4</v>
       </c>
@@ -2092,7 +2140,9 @@
       <c r="H21" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
@@ -2115,7 +2165,9 @@
       <c r="H22" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
@@ -2138,9 +2190,11 @@
       <c r="H23" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -2165,9 +2219,11 @@
       <c r="H24" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -2188,7 +2244,9 @@
       <c r="H25" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
@@ -2211,7 +2269,9 @@
       <c r="H26" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
@@ -2234,7 +2294,9 @@
       <c r="H27" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I27" s="13"/>
+      <c r="I27" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
@@ -2257,7 +2319,9 @@
       <c r="H28" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
@@ -2280,7 +2344,9 @@
       <c r="H29" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I29" s="13"/>
+      <c r="I29" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
@@ -2303,7 +2369,9 @@
       <c r="H30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="13"/>
+      <c r="I30" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
@@ -2326,7 +2394,9 @@
       <c r="H31" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="13"/>
+      <c r="I31" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
@@ -2349,7 +2419,9 @@
       <c r="H32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="13"/>
+      <c r="I32" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
@@ -2372,7 +2444,9 @@
       <c r="H33" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I33" s="13"/>
+      <c r="I33" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
@@ -2395,7 +2469,9 @@
       <c r="H34" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I34" s="13"/>
+      <c r="I34" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
@@ -2418,7 +2494,9 @@
       <c r="H35" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I35" s="13"/>
+      <c r="I35" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
@@ -2441,7 +2519,9 @@
       <c r="H36" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I36" s="13"/>
+      <c r="I36" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
@@ -2464,7 +2544,9 @@
       <c r="H37" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I37" s="13"/>
+      <c r="I37" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9">
@@ -2487,7 +2569,9 @@
       <c r="H38" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="13"/>
+      <c r="I38" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9">
@@ -2510,7 +2594,9 @@
       <c r="H39" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I39" s="13"/>
+      <c r="I39" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9">
@@ -2537,7 +2623,9 @@
       <c r="H40" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I40" s="13"/>
+      <c r="I40" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9">
@@ -2560,7 +2648,9 @@
       <c r="H41" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I41" s="13"/>
+      <c r="I41" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9">
@@ -2583,7 +2673,9 @@
       <c r="H42" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I42" s="13"/>
+      <c r="I42" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9">
@@ -2606,7 +2698,9 @@
       <c r="H43" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I43" s="13"/>
+      <c r="I43" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9">
@@ -2629,7 +2723,9 @@
       <c r="H44" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I44" s="13"/>
+      <c r="I44" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9">
@@ -2652,7 +2748,9 @@
       <c r="H45" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I45" s="13"/>
+      <c r="I45" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9">
@@ -2675,7 +2773,9 @@
       <c r="H46" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I46" s="13"/>
+      <c r="I46" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9">
@@ -2698,7 +2798,9 @@
       <c r="H47" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I47" s="13"/>
+      <c r="I47" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9">
@@ -2721,7 +2823,9 @@
       <c r="H48" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I48" s="13"/>
+      <c r="I48" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
@@ -2744,7 +2848,9 @@
       <c r="H49" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I49" s="13"/>
+      <c r="I49" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9">
@@ -2767,7 +2873,9 @@
       <c r="H50" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I50" s="13"/>
+      <c r="I50" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9">
@@ -2790,7 +2898,9 @@
       <c r="H51" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I51" s="13"/>
+      <c r="I51" s="13" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9">
@@ -2817,7 +2927,9 @@
       <c r="H52" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I52" s="13"/>
+      <c r="I52" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9">
@@ -2840,7 +2952,9 @@
       <c r="H53" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I53" s="13"/>
+      <c r="I53" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9">
@@ -2863,7 +2977,9 @@
       <c r="H54" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I54" s="13"/>
+      <c r="I54" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9">
@@ -2886,7 +3002,9 @@
       <c r="H55" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I55" s="13"/>
+      <c r="I55" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9">
@@ -2909,7 +3027,9 @@
       <c r="H56" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I56" s="13"/>
+      <c r="I56" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9">
@@ -2932,7 +3052,9 @@
       <c r="H57" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I57" s="13"/>
+      <c r="I57" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
@@ -2955,7 +3077,9 @@
       <c r="H58" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I58" s="13"/>
+      <c r="I58" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9">
@@ -2978,7 +3102,9 @@
       <c r="H59" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I59" s="13"/>
+      <c r="I59" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9">
@@ -3001,7 +3127,9 @@
       <c r="H60" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I60" s="13"/>
+      <c r="I60" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9">
@@ -3024,7 +3152,9 @@
       <c r="H61" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I61" s="13"/>
+      <c r="I61" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9">
@@ -3047,7 +3177,9 @@
       <c r="H62" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I62" s="13"/>
+      <c r="I62" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9">
@@ -3070,7 +3202,9 @@
       <c r="H63" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I63" s="13"/>
+      <c r="I63" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9">
@@ -3093,7 +3227,9 @@
       <c r="H64" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I64" s="13"/>
+      <c r="I64" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
@@ -3116,7 +3252,9 @@
       <c r="H65" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I65" s="13"/>
+      <c r="I65" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9">
@@ -3139,7 +3277,9 @@
       <c r="H66" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="13"/>
+      <c r="I66" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9">
@@ -3162,7 +3302,9 @@
       <c r="H67" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I67" s="13"/>
+      <c r="I67" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9">
@@ -3189,7 +3331,9 @@
       <c r="H68" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I68" s="13"/>
+      <c r="I68" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9">
@@ -3212,7 +3356,9 @@
       <c r="H69" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I69" s="13"/>
+      <c r="I69" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9">
@@ -3235,7 +3381,9 @@
       <c r="H70" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I70" s="13"/>
+      <c r="I70" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9">
@@ -3258,7 +3406,9 @@
       <c r="H71" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I71" s="13"/>
+      <c r="I71" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9">
@@ -3281,7 +3431,9 @@
       <c r="H72" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I72" s="13"/>
+      <c r="I72" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9">
@@ -3304,7 +3456,9 @@
       <c r="H73" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I73" s="13"/>
+      <c r="I73" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9">
@@ -3327,7 +3481,9 @@
       <c r="H74" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I74" s="13"/>
+      <c r="I74" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9">
@@ -3350,7 +3506,9 @@
       <c r="H75" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I75" s="13"/>
+      <c r="I75" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9">
@@ -3377,7 +3535,9 @@
       <c r="H76" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I76" s="13"/>
+      <c r="I76" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="9">
@@ -3400,7 +3560,9 @@
       <c r="H77" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I77" s="13"/>
+      <c r="I77" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="9">
@@ -3423,7 +3585,9 @@
       <c r="H78" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I78" s="13"/>
+      <c r="I78" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="9">
@@ -3446,7 +3610,9 @@
       <c r="H79" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I79" s="13"/>
+      <c r="I79" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="9">
@@ -3469,7 +3635,9 @@
       <c r="H80" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I80" s="13"/>
+      <c r="I80" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9">
@@ -3492,7 +3660,9 @@
       <c r="H81" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I81" s="13"/>
+      <c r="I81" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9">
@@ -3515,7 +3685,9 @@
       <c r="H82" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I82" s="13"/>
+      <c r="I82" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="9">
@@ -3538,7 +3710,9 @@
       <c r="H83" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I83" s="13"/>
+      <c r="I83" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="9">
@@ -3561,7 +3735,9 @@
       <c r="H84" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I84" s="13"/>
+      <c r="I84" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="9">
@@ -3584,7 +3760,9 @@
       <c r="H85" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I85" s="13"/>
+      <c r="I85" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="9">
@@ -3607,7 +3785,9 @@
       <c r="H86" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I86" s="13"/>
+      <c r="I86" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9">
@@ -3630,7 +3810,9 @@
       <c r="H87" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I87" s="13"/>
+      <c r="I87" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9">
@@ -3653,7 +3835,9 @@
       <c r="H88" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I88" s="13"/>
+      <c r="I88" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="9">
@@ -3676,7 +3860,9 @@
       <c r="H89" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I89" s="13"/>
+      <c r="I89" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="9">
@@ -3699,7 +3885,9 @@
       <c r="H90" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I90" s="13"/>
+      <c r="I90" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="9">
@@ -3722,7 +3910,9 @@
       <c r="H91" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I91" s="13"/>
+      <c r="I91" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="9">
@@ -3749,7 +3939,9 @@
       <c r="H92" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I92" s="13"/>
+      <c r="I92" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="9">
@@ -3772,7 +3964,9 @@
       <c r="H93" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I93" s="13"/>
+      <c r="I93" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="94" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="9">
@@ -3795,7 +3989,9 @@
       <c r="H94" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I94" s="13"/>
+      <c r="I94" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="95" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="9">
@@ -3818,7 +4014,9 @@
       <c r="H95" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I95" s="13"/>
+      <c r="I95" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="96" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="9">
@@ -3841,7 +4039,9 @@
       <c r="H96" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I96" s="13"/>
+      <c r="I96" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="9">
@@ -3864,7 +4064,9 @@
       <c r="H97" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I97" s="13"/>
+      <c r="I97" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9">
@@ -3887,7 +4089,9 @@
       <c r="H98" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I98" s="13"/>
+      <c r="I98" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="9">
@@ -3910,7 +4114,9 @@
       <c r="H99" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I99" s="13"/>
+      <c r="I99" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9">
@@ -3933,7 +4139,9 @@
       <c r="H100" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I100" s="13"/>
+      <c r="I100" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="9">
@@ -3956,7 +4164,9 @@
       <c r="H101" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I101" s="13"/>
+      <c r="I101" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="9">
@@ -3979,7 +4189,9 @@
       <c r="H102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I102" s="13"/>
+      <c r="I102" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="9">
@@ -4002,7 +4214,9 @@
       <c r="H103" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I103" s="13"/>
+      <c r="I103" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="9">
@@ -4025,7 +4239,9 @@
       <c r="H104" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I104" s="13"/>
+      <c r="I104" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="9">
@@ -4048,7 +4264,9 @@
       <c r="H105" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I105" s="13"/>
+      <c r="I105" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="9">
@@ -4071,7 +4289,9 @@
       <c r="H106" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I106" s="13"/>
+      <c r="I106" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="9">
@@ -4094,7 +4314,9 @@
       <c r="H107" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I107" s="13"/>
+      <c r="I107" s="13" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="108" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="9">
@@ -4121,7 +4343,9 @@
       <c r="H108" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I108" s="13"/>
+      <c r="I108" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="9">
@@ -4144,7 +4368,9 @@
       <c r="H109" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I109" s="13"/>
+      <c r="I109" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="110" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="9">
@@ -4167,7 +4393,9 @@
       <c r="H110" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I110" s="13"/>
+      <c r="I110" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="9">
@@ -4190,7 +4418,9 @@
       <c r="H111" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I111" s="13"/>
+      <c r="I111" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="112" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="9">
@@ -4213,7 +4443,9 @@
       <c r="H112" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I112" s="13"/>
+      <c r="I112" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="113" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="9">
@@ -4240,7 +4472,9 @@
       <c r="H113" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I113" s="13"/>
+      <c r="I113" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="114" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="9">
@@ -4263,7 +4497,9 @@
       <c r="H114" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I114" s="13"/>
+      <c r="I114" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="115" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="9">
@@ -4286,7 +4522,9 @@
       <c r="H115" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I115" s="13"/>
+      <c r="I115" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="116" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="9">
@@ -4309,7 +4547,9 @@
       <c r="H116" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I116" s="13"/>
+      <c r="I116" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="117" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="9">
@@ -4332,7 +4572,9 @@
       <c r="H117" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I117" s="13"/>
+      <c r="I117" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="118" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="9">
@@ -4355,7 +4597,9 @@
       <c r="H118" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I118" s="13"/>
+      <c r="I118" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="119" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="9">
@@ -4382,7 +4626,9 @@
       <c r="H119" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I119" s="13"/>
+      <c r="I119" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="120" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="9">
@@ -4405,7 +4651,9 @@
       <c r="H120" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I120" s="13"/>
+      <c r="I120" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="121" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="9">
@@ -4428,7 +4676,9 @@
       <c r="H121" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I121" s="13"/>
+      <c r="I121" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="122" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="9">
@@ -4451,7 +4701,9 @@
       <c r="H122" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I122" s="13"/>
+      <c r="I122" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="123" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="9">
@@ -4474,7 +4726,9 @@
       <c r="H123" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I123" s="13"/>
+      <c r="I123" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="124" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="9">
@@ -4497,7 +4751,9 @@
       <c r="H124" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I124" s="13"/>
+      <c r="I124" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="125" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="9">
@@ -4520,7 +4776,9 @@
       <c r="H125" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I125" s="13"/>
+      <c r="I125" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="126" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="9">
@@ -4543,7 +4801,9 @@
       <c r="H126" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I126" s="13"/>
+      <c r="I126" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="127" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="9">
@@ -4566,7 +4826,9 @@
       <c r="H127" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I127" s="13"/>
+      <c r="I127" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="128" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="9">
@@ -4589,7 +4851,9 @@
       <c r="H128" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I128" s="13"/>
+      <c r="I128" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="129" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="9">
@@ -4612,7 +4876,9 @@
       <c r="H129" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I129" s="13"/>
+      <c r="I129" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="130" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="9">
@@ -4635,7 +4901,9 @@
       <c r="H130" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I130" s="13"/>
+      <c r="I130" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="131" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="9">
@@ -4658,7 +4926,9 @@
       <c r="H131" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I131" s="13"/>
+      <c r="I131" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="9">
@@ -4681,7 +4951,9 @@
       <c r="H132" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I132" s="13"/>
+      <c r="I132" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="133" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="9">
@@ -4704,7 +4976,9 @@
       <c r="H133" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I133" s="13"/>
+      <c r="I133" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="134" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="9">
@@ -4727,7 +5001,9 @@
       <c r="H134" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I134" s="13"/>
+      <c r="I134" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="9">
@@ -4755,7 +5031,9 @@
         <f t="shared" ref="H135:H137" si="0">IF(D135="Create", "High", IF(D135="Update", "Medium", IF(D135="Delete", "Low", IF(D135="Read", "High", ""))))</f>
         <v>High</v>
       </c>
-      <c r="I135" s="13"/>
+      <c r="I135" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="9">
@@ -4779,7 +5057,9 @@
         <f t="shared" si="0"/>
         <v>High</v>
       </c>
-      <c r="I136" s="13"/>
+      <c r="I136" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="9">
@@ -4803,7 +5083,9 @@
         <f t="shared" si="0"/>
         <v>High</v>
       </c>
-      <c r="I137" s="13"/>
+      <c r="I137" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="9">
@@ -4830,7 +5112,9 @@
       <c r="H138" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I138" s="13"/>
+      <c r="I138" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="9">
@@ -4853,7 +5137,9 @@
       <c r="H139" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I139" s="13"/>
+      <c r="I139" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="9">
@@ -4876,7 +5162,9 @@
       <c r="H140" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I140" s="13"/>
+      <c r="I140" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="141" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="9">
@@ -4903,7 +5191,9 @@
       <c r="H141" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I141" s="13"/>
+      <c r="I141" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="142" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="9">
@@ -4926,7 +5216,9 @@
       <c r="H142" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I142" s="13"/>
+      <c r="I142" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="143" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="9">
@@ -4953,7 +5245,9 @@
       <c r="H143" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I143" s="13"/>
+      <c r="I143" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="144" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="9">
@@ -4976,7 +5270,9 @@
       <c r="H144" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I144" s="13"/>
+      <c r="I144" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="145" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="9">
@@ -5003,7 +5299,9 @@
       <c r="H145" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I145" s="13"/>
+      <c r="I145" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="146" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="9">
@@ -5026,7 +5324,9 @@
       <c r="H146" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I146" s="13"/>
+      <c r="I146" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="147" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="9">
@@ -5053,7 +5353,9 @@
       <c r="H147" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I147" s="13"/>
+      <c r="I147" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="148" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="9">
@@ -5076,7 +5378,9 @@
       <c r="H148" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I148" s="13"/>
+      <c r="I148" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="149" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="9">
@@ -5103,7 +5407,9 @@
       <c r="H149" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I149" s="13"/>
+      <c r="I149" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="150" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="9">
@@ -5130,7 +5436,9 @@
       <c r="H150" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I150" s="13"/>
+      <c r="I150" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="151" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="9">
@@ -5153,7 +5461,9 @@
       <c r="H151" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I151" s="13"/>
+      <c r="I151" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="152" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="9">
@@ -5176,7 +5486,9 @@
       <c r="H152" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I152" s="13"/>
+      <c r="I152" s="13" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="153" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="154" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
